--- a/spliced/falling/2023-03-21_15-35-27/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-27/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,78 +452,188 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2617557644844055</v>
+        <v>1.223868489265442</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7904596328735352</v>
+        <v>1.015716195106506</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3645338416099548</v>
+        <v>0.2379320114850998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3368921875953674</v>
+        <v>-0.2808452844619751</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3489567637443542</v>
+        <v>-0.5580254197120667</v>
       </c>
       <c r="C3" t="n">
-        <v>1.531897306442261</v>
+        <v>0.9086620807647704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.4462370574474334</v>
+        <v>-0.4292855560779571</v>
       </c>
       <c r="B4" t="n">
-        <v>2.508059978485107</v>
+        <v>-1.047786593437195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2651155292987823</v>
+        <v>0.4741841554641723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6637051105499268</v>
+        <v>0.2979495227336883</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5948300361633301</v>
+        <v>-0.4011857509613037</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4066835343837738</v>
+        <v>0.1365283876657486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1577559560537338</v>
+        <v>-0.0152716310694813</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.182427883148193</v>
+        <v>-0.2217440903186798</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.026240110397339</v>
+        <v>-0.104763388633728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.560580730438232</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.920713067054748</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="C7" t="n">
-        <v>1.063363671302795</v>
+        <v>-0.0922406539320945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>0.0565050356090068</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0242818929255008</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0531452745199203</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0300851128995418</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0068722339347004</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1162171140313148</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3998112976551056</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1134682223200798</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.1954768747091293</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8119926452636719</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1353066563606262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.2617557644844055</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.7904596328735352</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.3645338416099548</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3368921875953674</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3489567637443542</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.531897306442261</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.4462370574474334</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.508059978485107</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2651155292987823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.6637051105499268</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.5948300361633301</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.4066835343837738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.1577559560537338</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-5.182427883148193</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.026240110397339</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-3.560580730438232</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.920713067054748</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.063363671302795</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>-6.374378681182861</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B18" t="n">
         <v>-4.941136360168457</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C18" t="n">
         <v>-10.62203025817871</v>
       </c>
     </row>
